--- a/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,91</t>
+          <t>0,82; 3,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,9; 4,29</t>
+          <t>0,88; 4,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,83</t>
+          <t>0,78; 4,49</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 4,22</t>
+          <t>0,33; 4,47</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,52</t>
+          <t>0,88; 3,46</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,31</t>
+          <t>0,96; 3,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,48</t>
+          <t>1,54; 5,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 4,47</t>
+          <t>1,05; 4,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,92</t>
+          <t>1,09; 3,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,22; 3,15</t>
+          <t>1,23; 3,18</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,03</t>
+          <t>1,49; 4,17</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,04; 3,56</t>
+          <t>1,1; 3,66</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,1; 12,16</t>
+          <t>5,18; 12,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,29; 10,24</t>
+          <t>4,19; 10,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,07; 10,24</t>
+          <t>5,04; 10,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 12,19</t>
+          <t>6,01; 12,8</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,01</t>
+          <t>4,18; 9,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,47</t>
+          <t>1,61; 4,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,39</t>
+          <t>3,37; 7,43</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,62; 10,27</t>
+          <t>5,57; 10,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,09; 9,05</t>
+          <t>5,26; 9,27</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,29</t>
+          <t>3,08; 6,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,94</t>
+          <t>4,48; 7,73</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,34; 10,32</t>
+          <t>6,24; 10,07</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,05; 38,79</t>
+          <t>17,29; 38,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,66; 26,9</t>
+          <t>9,04; 27,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,16; 26,84</t>
+          <t>11,91; 27,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,4; 26,97</t>
+          <t>13,29; 28,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,69; 25,64</t>
+          <t>10,09; 24,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,23; 27,91</t>
+          <t>11,65; 27,45</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,17; 24,88</t>
+          <t>11,05; 24,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,17; 31,58</t>
+          <t>19,6; 32,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,86; 27,42</t>
+          <t>14,97; 27,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,02; 23,97</t>
+          <t>11,58; 24,29</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,91; 22,63</t>
+          <t>12,82; 23,12</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,26; 27,31</t>
+          <t>18,27; 27,68</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,32; 9,44</t>
+          <t>5,14; 9,46</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 7,83</t>
+          <t>4,06; 7,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,57; 9,37</t>
+          <t>5,6; 9,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,01; 12,41</t>
+          <t>7,11; 11,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,92</t>
+          <t>3,95; 6,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,13</t>
+          <t>2,94; 5,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,38; 7,34</t>
+          <t>4,4; 7,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,76; 11,1</t>
+          <t>7,67; 11,22</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,87; 7,12</t>
+          <t>4,89; 7,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,69; 5,76</t>
+          <t>3,63; 5,58</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,36; 7,71</t>
+          <t>5,25; 7,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 10,8</t>
+          <t>7,9; 10,73</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,95</t>
+          <t>0,82; 3,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,21</t>
+          <t>0,91; 4,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,78; 4,49</t>
+          <t>0,79; 4,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,46</t>
+          <t>0,91; 3,31</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,96; 3,36</t>
+          <t>0,93; 3,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 5,48</t>
+          <t>1,42; 5,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,09; 3,11</t>
+          <t>1,14; 3,01</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 3,18</t>
+          <t>1,19; 3,09</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,17</t>
+          <t>1,57; 4,26</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,18; 12,58</t>
+          <t>5,52; 12,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,11</t>
+          <t>4,18; 10,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 10,29</t>
+          <t>4,83; 9,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 9,24</t>
+          <t>4,02; 9,29</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,61; 4,68</t>
+          <t>1,45; 4,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 7,43</t>
+          <t>3,52; 7,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 9,27</t>
+          <t>5,19; 9,28</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,37</t>
+          <t>3,18; 6,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,48; 7,73</t>
+          <t>4,66; 7,76</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 38,88</t>
+          <t>15,95; 37,67</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,04; 27,42</t>
+          <t>9,2; 28,07</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,91; 27,82</t>
+          <t>11,8; 26,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,09; 24,78</t>
+          <t>10,16; 25,13</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,65; 27,45</t>
+          <t>11,29; 27,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,05; 24,78</t>
+          <t>10,94; 24,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,97; 27,23</t>
+          <t>14,9; 27,29</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>11,58; 24,29</t>
+          <t>12,15; 24,62</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,82; 23,12</t>
+          <t>12,75; 22,76</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 9,46</t>
+          <t>5,37; 9,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,06; 7,69</t>
+          <t>4,13; 7,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,6; 9,26</t>
+          <t>5,66; 9,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,95; 6,79</t>
+          <t>3,84; 6,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,94; 5,26</t>
+          <t>2,81; 5,24</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,2</t>
+          <t>4,37; 7,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,89; 7,2</t>
+          <t>4,83; 7,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,63; 5,58</t>
+          <t>3,7; 5,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,25; 7,64</t>
+          <t>5,31; 7,63</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>0,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>1,2%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>1,92%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,82</t>
+          <t>0,27; 1,22</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,02</t>
+          <t>0,31; 1,4</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 4,71</t>
+          <t>0,27; 1,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,47</t>
+          <t>0,09; 1,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 3,31</t>
+          <t>0,34; 1,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,25</t>
+          <t>0,38; 1,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 5,28</t>
+          <t>0,58; 2,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,05; 4,6</t>
+          <t>0,38; 1,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,14; 3,01</t>
+          <t>0,41; 1,13</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,19; 3,09</t>
+          <t>0,45; 1,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 4,26</t>
+          <t>0,58; 1,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,1; 3,66</t>
+          <t>0,33; 1,1</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,43%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>7,64%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>1,58%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>7,99%</t>
+          <t>1,58%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,52; 12,57</t>
+          <t>0,8; 1,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 10,25</t>
+          <t>0,81; 1,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,83; 9,89</t>
+          <t>1,07; 2,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,01; 12,8</t>
+          <t>0,92; 2,15</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,29</t>
+          <t>1,05; 2,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>1,45; 4,69</t>
+          <t>0,43; 1,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,52; 7,21</t>
+          <t>0,99; 2,16</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,57; 10,0</t>
+          <t>1,17; 2,22</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,28</t>
+          <t>1,03; 1,85</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,45</t>
+          <t>0,72; 1,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 7,76</t>
+          <t>1,18; 1,96</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,24; 10,07</t>
+          <t>1,25; 2,06</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>26,24%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,32%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>18,71%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>16,9%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>3,74%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>17,36%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>17,73%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>22,72%</t>
+          <t>4,95%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>15,95; 37,67</t>
+          <t>2,0; 5,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,2; 28,07</t>
+          <t>1,3; 4,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 26,59</t>
+          <t>2,56; 6,42</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,29; 28,06</t>
+          <t>2,44; 5,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,16; 25,13</t>
+          <t>2,46; 6,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,29; 27,03</t>
+          <t>2,62; 6,81</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>10,94; 24,05</t>
+          <t>2,81; 6,43</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,6; 32,1</t>
+          <t>4,5; 7,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>14,9; 27,29</t>
+          <t>2,71; 5,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 24,62</t>
+          <t>2,24; 4,99</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>12,75; 22,76</t>
+          <t>3,12; 5,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,27; 27,68</t>
+          <t>3,93; 6,16</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,09%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,68%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,29%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>1,26%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>2,05%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 9,29</t>
+          <t>1,05; 1,94</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,13; 7,93</t>
+          <t>0,92; 1,79</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,66; 9,47</t>
+          <t>1,39; 2,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,11; 11,85</t>
+          <t>1,37; 2,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 6,82</t>
+          <t>1,22; 2,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,24</t>
+          <t>0,9; 1,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,37; 7,17</t>
+          <t>1,42; 2,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,67; 11,22</t>
+          <t>1,85; 2,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,83; 7,26</t>
+          <t>1,26; 1,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 5,7</t>
+          <t>1,02; 1,55</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,31; 7,63</t>
+          <t>1,52; 2,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>7,9; 10,73</t>
+          <t>1,71; 2,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,58%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,1</t>
+          <t>0,09; 1,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,51</t>
+          <t>0,36; 1,39</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,1</t>
+          <t>0,32; 1,01</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,58%</t>
+          <t>1,44%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 2,15</t>
+          <t>0,78; 2,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,22</t>
+          <t>1,02; 2,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 2,06</t>
+          <t>1,07; 1,88</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,94%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>5,03%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,78</t>
+          <t>2,49; 5,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 7,54</t>
+          <t>4,55; 7,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,16</t>
+          <t>3,96; 6,28</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,82%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 2,42</t>
+          <t>1,26; 2,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,85; 2,74</t>
+          <t>1,69; 2,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,71; 2,43</t>
+          <t>1,57; 2,33</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P17G_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,22</t>
+          <t>0,27; 1,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 1,4</t>
+          <t>0,31; 1,58</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 1,57</t>
+          <t>0,27; 1,54</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 1,0</t>
+          <t>0,09; 1,03</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 1,37</t>
+          <t>0,33; 1,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 1,36</t>
+          <t>0,38; 1,35</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 2,11</t>
+          <t>0,6; 2,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,39</t>
+          <t>0,36; 1,37</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 1,13</t>
+          <t>0,43; 1,17</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 1,22</t>
+          <t>0,47; 1,23</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1,6</t>
+          <t>0,55; 1,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,01</t>
+          <t>0,31; 0,99</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 1,9</t>
+          <t>0,77; 2,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 1,9</t>
+          <t>0,79; 1,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 2,35</t>
+          <t>1,11; 2,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,78; 2,0</t>
+          <t>0,8; 2,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,35</t>
+          <t>1,04; 2,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,39</t>
+          <t>0,41; 1,36</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,99; 2,16</t>
+          <t>1,05; 2,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,07</t>
+          <t>1,04; 2,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,85</t>
+          <t>1,07; 1,93</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,45</t>
+          <t>0,69; 1,45</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,96</t>
+          <t>1,19; 2,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,07; 1,88</t>
+          <t>1,1; 1,9</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 5,32</t>
+          <t>1,97; 5,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,78</t>
+          <t>1,32; 4,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,42</t>
+          <t>2,43; 6,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 5,99</t>
+          <t>2,71; 6,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,46; 6,34</t>
+          <t>2,5; 6,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 6,81</t>
+          <t>2,47; 6,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 6,43</t>
+          <t>2,7; 6,29</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 7,6</t>
+          <t>4,56; 7,68</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2,71; 5,27</t>
+          <t>2,61; 5,2</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 4,99</t>
+          <t>2,25; 4,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,12; 5,69</t>
+          <t>3,16; 5,61</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,28</t>
+          <t>3,98; 6,3</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 1,94</t>
+          <t>1,04; 1,88</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,92; 1,79</t>
+          <t>0,91; 1,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,38</t>
+          <t>1,35; 2,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 2,34</t>
+          <t>1,25; 2,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 2,1</t>
+          <t>1,22; 2,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,9; 1,68</t>
+          <t>0,9; 1,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,42; 2,43</t>
+          <t>1,36; 2,37</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,69; 2,62</t>
+          <t>1,68; 2,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1,26; 1,87</t>
+          <t>1,25; 1,84</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>1,02; 1,55</t>
+          <t>1,01; 1,59</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>1,52; 2,21</t>
+          <t>1,54; 2,2</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 2,33</t>
+          <t>1,57; 2,31</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha acudido a un médico privado en su última visita</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>6612</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>7170</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>5317</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1929</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9944</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>10331</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>11862</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>5398</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16556</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>17501</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>17180</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>7327</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2809; 13802</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3035; 15241</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2010; 11584</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>449; 5316</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4318; 18345</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5095; 17971</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5859; 21196</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>2742; 10313</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10062; 27483</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>10659; 28104</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9630; 28078</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>3970; 12539</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21028</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>24244</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>33640</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31015</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>25577</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>13820</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>30126</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34038</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>46605</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>38063</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>63766</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>65053</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>12954; 33706</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>15449; 37829</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>22991; 48048</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>18253; 47533</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>16469; 37931</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7073; 23750</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>20689; 44260</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23355; 47706</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>34949; 63121</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>25402; 53555</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>48308; 81405</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>49705; 85979</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>18834</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>12211</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22582</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26462</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>19624</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>19471</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>23399</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>39234</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>38458</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>31682</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>45981</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>65696</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10889; 30556</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6277; 21320</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>13308; 34211</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17493; 39214</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11914; 30041</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>11242; 30267</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14841; 34542</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>30100; 50730</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26828; 53398</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>20953; 44661</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>34669; 61519</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51959; 82352</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>46473</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>43624</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>61538</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>59406</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55146</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>43622</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>65388</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>78670</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>101619</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>87246</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>126926</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>138076</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>33859; 61432</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>30754; 60470</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>45380; 79307</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>43098; 79409</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>41338; 71712</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>31622; 57805</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47791; 83290</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>61475; 96033</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>83093; 122514</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>69861; 109971</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>105809; 151308</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>111579; 164071</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>